--- a/Результаты/выхДанные_Кашино.xlsx
+++ b/Результаты/выхДанные_Кашино.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Среднее значение отключаемой мощности</t>
   </si>
@@ -36,31 +36,25 @@
     <t xml:space="preserve">Места для установки </t>
   </si>
   <si>
-    <t>58, 36</t>
+    <t>60, 36</t>
   </si>
   <si>
-    <t>58, 36, 20</t>
+    <t>60, 36, 20</t>
   </si>
   <si>
-    <t>67, 37, 36, 20</t>
+    <t>69, 37, 36, 20</t>
   </si>
   <si>
-    <t>67, 66, 37, 36, 20</t>
+    <t>69, 68, 37, 36, 20</t>
   </si>
   <si>
-    <t>67, 66, 37, 36, 20, 8</t>
+    <t>69, 68, 37, 36, 20, 8</t>
   </si>
   <si>
-    <t>67, 66, 37, 36, 21, 20, 8</t>
+    <t>69, 68, 42, 41, 36, 20, 8</t>
   </si>
   <si>
-    <t>67, 66, 46, 37, 36, 21, 20, 8</t>
-  </si>
-  <si>
-    <t>67, 66, 58, 46, 37, 36, 21, 20, 8</t>
-  </si>
-  <si>
-    <t>67, 66, 58, 46, 37, 36, 21, 20, 18, 8</t>
+    <t>69, 68, 42, 41, 36, 21, 20, 8</t>
   </si>
 </sst>
 </file>
@@ -127,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -164,6 +158,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -274,7 +271,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>от1до10</c:v>
+            <c:v>от1до8</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -309,44 +306,38 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:backward val="81"/>
+            <c:forward val="84"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$6:$B$15</c:f>
+              <c:f>Лист1!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -354,39 +345,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$A$6:$A$15</c:f>
+              <c:f>Лист1!$A$6:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3833</c:v>
+                  <c:v>4143.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3939.4</c:v>
+                  <c:v>4336.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4060.7</c:v>
+                  <c:v>4525.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4233.1000000000004</c:v>
+                  <c:v>4839.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4408</c:v>
+                  <c:v>5206.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4722.2</c:v>
+                  <c:v>5793.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5079.6000000000004</c:v>
+                  <c:v>6556.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5620.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6382.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7564.7</c:v>
+                  <c:v>7741.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,7 +413,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$16</c:f>
+              <c:f>Лист1!$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -440,12 +425,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$A$16</c:f>
+              <c:f>Лист1!$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9590</c:v>
+                  <c:v>9790</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,7 +446,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>от86до89</c:v>
+            <c:v>от88до91</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -492,16 +477,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,16 +498,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1924.2</c:v>
+                  <c:v>1918.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1924.4</c:v>
+                  <c:v>1919.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1925.7</c:v>
+                  <c:v>1919.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1925</c:v>
+                  <c:v>1919.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +596,7 @@
         <c:axId val="470414816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9600"/>
+          <c:max val="9900"/>
           <c:min val="1800"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -756,7 +741,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -843,102 +827,90 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Лист1!$B$6:$B$15,Лист1!$B$2:$B$5)</c:f>
+              <c:f>(Лист1!$B$6:$B$13,Лист1!$B$2:$B$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Лист1!$A$6:$A$15,Лист1!$A$2:$A$5)</c:f>
+              <c:f>(Лист1!$A$6:$A$13,Лист1!$A$2:$A$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3833</c:v>
+                  <c:v>4143.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3939.4</c:v>
+                  <c:v>4336.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4060.7</c:v>
+                  <c:v>4525.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4233.1000000000004</c:v>
+                  <c:v>4839.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4408</c:v>
+                  <c:v>5206.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4722.2</c:v>
+                  <c:v>5793.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5079.6000000000004</c:v>
+                  <c:v>6556.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5620.4</c:v>
+                  <c:v>7741.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6382.5</c:v>
+                  <c:v>1918.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7564.7</c:v>
+                  <c:v>1919.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1924.2</c:v>
+                  <c:v>1919.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1924.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1925.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1925</c:v>
+                  <c:v>1919.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,13 +2221,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>394856</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>94673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>83126</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2279,13 +2251,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>750455</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>15009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>129308</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2571,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2605,257 +2577,219 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
-        <v>1924.2</v>
+        <v>1918.9</v>
       </c>
       <c r="B2" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D5" si="0">1-A2/$A$16</f>
-        <v>0.79935349322210636</v>
+        <f t="shared" ref="D2:D14" si="0">1-A2/$A$14</f>
+        <v>0.80399387129724209</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
-        <v>1924.4</v>
+        <v>1919.1</v>
       </c>
       <c r="B3" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>0.79933263816475497</v>
+        <v>0.80397344228804901</v>
       </c>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
-        <v>1925.7</v>
+        <v>1919.4</v>
       </c>
       <c r="B4" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.79919708029197079</v>
+        <v>0.80394279877425945</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
-        <v>1925</v>
-      </c>
-      <c r="B5" s="13">
-        <v>86</v>
+        <v>1919.6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>88</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.7992700729927007</v>
+        <v>0.80392236976506637</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
-        <v>3833</v>
+        <v>4143.7</v>
       </c>
       <c r="B6" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D14" si="1">1-A6/$A$16</f>
-        <v>0.60031282586027113</v>
+        <f t="shared" si="0"/>
+        <v>0.57674157303370788</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E14" si="2">1-A6/A7</f>
-        <v>2.7009189216631979E-2</v>
+        <f>1-A6/A7</f>
+        <v>4.4393708777270446E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
-        <v>3939.4</v>
-      </c>
-      <c r="B7" s="13">
-        <v>9</v>
+        <v>4336.2</v>
+      </c>
+      <c r="B7" s="14">
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58921793534932221</v>
+        <f t="shared" si="0"/>
+        <v>0.55707865168539328</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9871696998054476E-2</v>
+        <f t="shared" ref="E7:E12" si="1">1-A7/A8</f>
+        <v>4.1914315384785295E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
-        <v>4060.7</v>
-      </c>
-      <c r="B8" s="13">
-        <v>8</v>
+        <v>4525.8999999999996</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53770173646578145</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>0.57656934306569352</v>
-      </c>
-      <c r="E8" s="2">
-        <f>1-A8/A9</f>
-        <v>4.0726654225036185E-2</v>
+        <v>6.4858051985619336E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
-        <v>4233.1000000000004</v>
-      </c>
-      <c r="B9" s="13">
-        <v>7</v>
+        <v>4839.8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50563840653728298</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0.55859228362878</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
-        <v>3.9677858439201352E-2</v>
+        <v>7.0484750710609223E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
-        <v>4408</v>
-      </c>
-      <c r="B10" s="13">
-        <v>6</v>
+        <v>5206.8</v>
+      </c>
+      <c r="B10" s="14">
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46815117466802858</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0.54035453597497396</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
-        <v>6.6536783702511482E-2</v>
+        <v>0.10129968759169439</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <v>4722.2</v>
-      </c>
-      <c r="B11" s="13">
-        <v>5</v>
+        <v>5793.7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40820224719101128</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>0.50759124087591245</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>7.0359870855973061E-2</v>
+        <v>0.11635603819052565</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
-        <v>5079.6000000000004</v>
-      </c>
-      <c r="B12" s="13">
-        <v>4</v>
+        <v>6556.6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33027579162410614</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0.47032325338894676</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="2"/>
-        <v>9.6220909543804578E-2</v>
+        <v>0.15303631173058785</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
-        <v>5620.4</v>
-      </c>
-      <c r="B13" s="13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
+        <v>7741.3</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.41393117831074044</v>
+        <f t="shared" si="0"/>
+        <v>0.20926455566905</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.1194046220133177</v>
+        <f>1-A13/A14</f>
+        <v>0.20926455566905</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
-        <v>6382.5</v>
-      </c>
-      <c r="B14" s="13">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
+        <v>9790</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.33446298227320126</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15627850410459099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
-        <v>7564.7</v>
-      </c>
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2">
-        <f>1-A15/$A$16</f>
-        <v>0.21118873826903029</v>
-      </c>
-      <c r="E15" s="2">
-        <f>1-A15/A16</f>
-        <v>0.21118873826903029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
-        <v>9590</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <f>1-A16/$A$16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
